--- a/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>74377</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60122</v>
+        <v>59079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91777</v>
+        <v>91413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.233268771574678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1885620440573717</v>
+        <v>0.1852893309025495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2878432317259094</v>
+        <v>0.2867003644008302</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -762,19 +762,19 @@
         <v>65447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54287</v>
+        <v>53338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80132</v>
+        <v>80391</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2070700934060664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1717604750958685</v>
+        <v>0.1687577133472421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2535347999046024</v>
+        <v>0.2543520268623017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -783,19 +783,19 @@
         <v>139823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119365</v>
+        <v>119516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163590</v>
+        <v>161194</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2202268849688706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.188004822554918</v>
+        <v>0.1882421401258879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2576602993028674</v>
+        <v>0.2538859596253521</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>244468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>227068</v>
+        <v>227432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258723</v>
+        <v>259766</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7667312284253219</v>
+        <v>0.7667312284253223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7121567682740906</v>
+        <v>0.71329963559917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8114379559426284</v>
+        <v>0.8147106690974506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>436</v>
@@ -833,19 +833,19 @@
         <v>250614</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235929</v>
+        <v>235670</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261774</v>
+        <v>262723</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7929299065939336</v>
+        <v>0.7929299065939335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7464652000953984</v>
+        <v>0.7456479731376983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8282395249041318</v>
+        <v>0.8312422866527579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>697</v>
@@ -854,19 +854,19 @@
         <v>495083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471316</v>
+        <v>473712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515541</v>
+        <v>515390</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7797731150311294</v>
+        <v>0.7797731150311296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7423397006971317</v>
+        <v>0.7461140403746481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8119951774450817</v>
+        <v>0.8117578598741121</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>205207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172239</v>
+        <v>175892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233556</v>
+        <v>234974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3876507733528993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3253708177232461</v>
+        <v>0.3322714492477385</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.441203620796343</v>
+        <v>0.4438830168278203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -979,19 +979,19 @@
         <v>182698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162702</v>
+        <v>162108</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203328</v>
+        <v>202571</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3347463593095676</v>
+        <v>0.3347463593095675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2981097703779031</v>
+        <v>0.2970218736916215</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3725459872280981</v>
+        <v>0.3711587196530799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>373</v>
@@ -1000,19 +1000,19 @@
         <v>387905</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>352184</v>
+        <v>352768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>422942</v>
+        <v>424912</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3607946173006899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3275701078361239</v>
+        <v>0.3281136225799742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3933827425308014</v>
+        <v>0.3952154664307159</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>324154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>295805</v>
+        <v>294387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357122</v>
+        <v>353469</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6123492266471009</v>
+        <v>0.6123492266471008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.558796379203657</v>
+        <v>0.5561169831721795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6746291822767542</v>
+        <v>0.6677285507522615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>482</v>
@@ -1050,19 +1050,19 @@
         <v>363081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342451</v>
+        <v>343208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>383077</v>
+        <v>383671</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6652536406904325</v>
+        <v>0.6652536406904322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6274540127719018</v>
+        <v>0.6288412803469202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7018902296220968</v>
+        <v>0.7029781263083784</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>724</v>
@@ -1071,19 +1071,19 @@
         <v>687235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>652198</v>
+        <v>650228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>722956</v>
+        <v>722372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6392053826993102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6066172574691986</v>
+        <v>0.6047845335692844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6724298921638761</v>
+        <v>0.6718863774200258</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>54378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42513</v>
+        <v>42366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68671</v>
+        <v>69848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1732580994258967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1354562640945338</v>
+        <v>0.134986473487517</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.21879833862457</v>
+        <v>0.2225487910103442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1196,19 +1196,19 @@
         <v>66662</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54609</v>
+        <v>53994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80492</v>
+        <v>79486</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1897635458802032</v>
+        <v>0.1897635458802031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1554536942930663</v>
+        <v>0.1537020475213108</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2291314931960705</v>
+        <v>0.2262681228752401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -1217,19 +1217,19 @@
         <v>121040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103537</v>
+        <v>103243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139543</v>
+        <v>139739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.181975337888501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1556609589967005</v>
+        <v>0.155219243052795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2097935807488256</v>
+        <v>0.2100890460259606</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>259475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245182</v>
+        <v>244005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271340</v>
+        <v>271487</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8267419005741033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7812016613754287</v>
+        <v>0.7774512089896555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8645437359054663</v>
+        <v>0.8650135265124829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>433</v>
@@ -1267,19 +1267,19 @@
         <v>284629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>270799</v>
+        <v>271805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296682</v>
+        <v>297297</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8102364541197969</v>
+        <v>0.8102364541197968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7708685068039296</v>
+        <v>0.77373187712476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8445463057069339</v>
+        <v>0.8462979524786892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>731</v>
@@ -1288,19 +1288,19 @@
         <v>544104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>525601</v>
+        <v>525405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>561607</v>
+        <v>561901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8180246621114992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7902064192511744</v>
+        <v>0.7899109539740397</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8443390410032994</v>
+        <v>0.8447807569472048</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>76994</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56870</v>
+        <v>57378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98036</v>
+        <v>99553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2077024675113113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1534150077876098</v>
+        <v>0.1547862296659046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2644683598795717</v>
+        <v>0.2685600688647835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1413,19 +1413,19 @@
         <v>64396</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51828</v>
+        <v>51186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79303</v>
+        <v>80735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1527847618808864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1229663853654925</v>
+        <v>0.1214422797787467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1881508646173002</v>
+        <v>0.1915498147783854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1434,19 +1434,19 @@
         <v>141390</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117413</v>
+        <v>115593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168225</v>
+        <v>165871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1784830088559452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1482157476919341</v>
+        <v>0.1459176739916059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2123574242486109</v>
+        <v>0.2093858821403055</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>293698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272656</v>
+        <v>271139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>313822</v>
+        <v>313314</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7922975324886887</v>
+        <v>0.7922975324886886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7355316401204283</v>
+        <v>0.7314399311352165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8465849922123901</v>
+        <v>0.8452137703340953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>515</v>
@@ -1484,19 +1484,19 @@
         <v>357089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342182</v>
+        <v>340750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369657</v>
+        <v>370299</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8472152381191137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8118491353826998</v>
+        <v>0.808450185221614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8770336146345077</v>
+        <v>0.8785577202212532</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>747</v>
@@ -1505,19 +1505,19 @@
         <v>650787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623952</v>
+        <v>626306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>674764</v>
+        <v>676584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8215169911440549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.787642575751389</v>
+        <v>0.7906141178596946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8517842523080659</v>
+        <v>0.8540823260083943</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48630</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38223</v>
+        <v>39311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59210</v>
+        <v>59799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2364501233427184</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1858495093149098</v>
+        <v>0.1911420779050859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2878932161032218</v>
+        <v>0.2907587107029769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -1630,19 +1630,19 @@
         <v>42243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34520</v>
+        <v>33711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52481</v>
+        <v>51924</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1862383777437339</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1521871615903506</v>
+        <v>0.148620329380134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2313735017010928</v>
+        <v>0.2289176645080871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -1651,19 +1651,19 @@
         <v>90873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77757</v>
+        <v>76510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105226</v>
+        <v>104567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2101159964610504</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1797894925226048</v>
+        <v>0.1769074179598152</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2433033534701327</v>
+        <v>0.241779980934015</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>157035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146455</v>
+        <v>145866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167442</v>
+        <v>166354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7635498766572815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7121067838967781</v>
+        <v>0.7092412892970231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8141504906850902</v>
+        <v>0.8088579220949141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>401</v>
@@ -1701,19 +1701,19 @@
         <v>184580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174342</v>
+        <v>174899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192303</v>
+        <v>193112</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.813761622256266</v>
+        <v>0.8137616222562659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7686264982989074</v>
+        <v>0.7710823354919131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8478128384096495</v>
+        <v>0.8513796706198662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>611</v>
@@ -1722,19 +1722,19 @@
         <v>341615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327262</v>
+        <v>327921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354731</v>
+        <v>355978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7898840035389495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7566966465298671</v>
+        <v>0.7582200190659854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8202105074773952</v>
+        <v>0.8230925820401855</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>29442</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21163</v>
+        <v>21532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39688</v>
+        <v>39870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1089265250831208</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07829840845546017</v>
+        <v>0.07966132618962564</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1468370533121508</v>
+        <v>0.1475079576129184</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1847,19 +1847,19 @@
         <v>24248</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17305</v>
+        <v>17807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32367</v>
+        <v>33495</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09227615889556461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06585445084503967</v>
+        <v>0.06776420791772476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1231764608986863</v>
+        <v>0.1274660425160352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1868,19 +1868,19 @@
         <v>53689</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42946</v>
+        <v>42909</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68381</v>
+        <v>66860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1007187012472826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08056462844107883</v>
+        <v>0.08049529677859334</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1282792612010181</v>
+        <v>0.1254274245541588</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>240846</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230600</v>
+        <v>230418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249125</v>
+        <v>248756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8910734749168793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8531629466878493</v>
+        <v>0.8524920423870816</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9217015915445399</v>
+        <v>0.9203386738103744</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>421</v>
@@ -1918,19 +1918,19 @@
         <v>238525</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230406</v>
+        <v>229278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245468</v>
+        <v>244966</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9077238411044354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8768235391013136</v>
+        <v>0.8725339574839651</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9341455491549603</v>
+        <v>0.9322357920822752</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>752</v>
@@ -1939,19 +1939,19 @@
         <v>479372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464680</v>
+        <v>466201</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>490115</v>
+        <v>490152</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8992812987527172</v>
+        <v>0.8992812987527175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8717207387989816</v>
+        <v>0.8745725754458415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.919435371558921</v>
+        <v>0.9195047032214066</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>158893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133008</v>
+        <v>130607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190776</v>
+        <v>186661</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2211130320146954</v>
+        <v>0.2211130320146953</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1850914147460527</v>
+        <v>0.181751307111588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2654807219823702</v>
+        <v>0.2597544737629361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -2064,19 +2064,19 @@
         <v>137563</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>118536</v>
+        <v>116901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162499</v>
+        <v>159813</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1786516425305029</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1539415044503649</v>
+        <v>0.1518185241602515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2110355685456554</v>
+        <v>0.2075479930401228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>267</v>
@@ -2085,19 +2085,19 @@
         <v>296456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264310</v>
+        <v>264096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>334013</v>
+        <v>334016</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1991492495481912</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1775546615911381</v>
+        <v>0.1774106573095521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2243788389839763</v>
+        <v>0.2243808689997202</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>559712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>527829</v>
+        <v>531944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>585597</v>
+        <v>587998</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7788869679853047</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7345192780176298</v>
+        <v>0.7402455262370639</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8149085852539474</v>
+        <v>0.818248692888412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>806</v>
@@ -2135,19 +2135,19 @@
         <v>632444</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>607508</v>
+        <v>610194</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>651471</v>
+        <v>653106</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.821348357469497</v>
+        <v>0.8213483574694971</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.788964431454345</v>
+        <v>0.7924520069598772</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8460584955496352</v>
+        <v>0.8481814758397486</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1288</v>
@@ -2156,19 +2156,19 @@
         <v>1192156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1154599</v>
+        <v>1154596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1224302</v>
+        <v>1224516</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8008507504518088</v>
+        <v>0.8008507504518089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7756211610160233</v>
+        <v>0.77561913100028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8224453384088618</v>
+        <v>0.8225893426904481</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>488028</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>457889</v>
+        <v>458081</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>515873</v>
+        <v>517992</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6123057773959142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5744924083455619</v>
+        <v>0.5747330361537095</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6472417235487026</v>
+        <v>0.6498999640343746</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>571</v>
@@ -2281,19 +2281,19 @@
         <v>454247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>429015</v>
+        <v>428357</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>481336</v>
+        <v>480674</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5468868834211146</v>
+        <v>0.5468868834211147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5165087946782849</v>
+        <v>0.5157170792600679</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5794999850550613</v>
+        <v>0.5787029148345014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1044</v>
@@ -2302,19 +2302,19 @@
         <v>942274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>899499</v>
+        <v>906191</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>975818</v>
+        <v>984507</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5789216561728413</v>
+        <v>0.5789216561728414</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5526410926803041</v>
+        <v>0.5567524247844103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5995306437534937</v>
+        <v>0.6048691582427611</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>309005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>281160</v>
+        <v>279041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>339144</v>
+        <v>338952</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3876942226040858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3527582764512974</v>
+        <v>0.3501000359656254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4255075916544381</v>
+        <v>0.4252669638462905</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>490</v>
@@ -2352,19 +2352,19 @@
         <v>376358</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>349269</v>
+        <v>349931</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>401590</v>
+        <v>402248</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4531131165788853</v>
+        <v>0.4531131165788854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4205000149449384</v>
+        <v>0.4212970851654987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4834912053217146</v>
+        <v>0.4842829207399321</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>778</v>
@@ -2373,19 +2373,19 @@
         <v>685363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>651819</v>
+        <v>643130</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>728138</v>
+        <v>721446</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4210783438271586</v>
+        <v>0.4210783438271588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4004693562465066</v>
+        <v>0.395130841757239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4473589073196961</v>
+        <v>0.4432475752155897</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>1135946</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1075529</v>
+        <v>1078522</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1201682</v>
+        <v>1198805</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3223145644577426</v>
+        <v>0.3223145644577428</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3051715271441792</v>
+        <v>0.3060210061680099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3409664854172053</v>
+        <v>0.3401500935635021</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1363</v>
@@ -2498,19 +2498,19 @@
         <v>1037504</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>989324</v>
+        <v>981494</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1091456</v>
+        <v>1085153</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.278537649649796</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2656030104943282</v>
+        <v>0.263500848787296</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2930220971062326</v>
+        <v>0.2913299570289967</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2385</v>
@@ -2519,19 +2519,19 @@
         <v>2173450</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2092328</v>
+        <v>2089622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2255871</v>
+        <v>2248336</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2998207613619225</v>
+        <v>0.2998207613619224</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2886302232075397</v>
+        <v>0.2882569659572337</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3111904958041797</v>
+        <v>0.3101510608486134</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2388395</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2322659</v>
+        <v>2325536</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2448812</v>
+        <v>2445819</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6776854355422572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.659033514582795</v>
+        <v>0.6598499064364979</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6948284728558211</v>
+        <v>0.6939789938319904</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3984</v>
@@ -2569,19 +2569,19 @@
         <v>2687320</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2633368</v>
+        <v>2639671</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2735500</v>
+        <v>2743330</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.721462350350204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7069779028937675</v>
+        <v>0.7086700429710036</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7343969895056718</v>
+        <v>0.736499151212704</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6328</v>
@@ -2590,19 +2590,19 @@
         <v>5075715</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4993294</v>
+        <v>5000829</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5156837</v>
+        <v>5159543</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7001792386380775</v>
+        <v>0.7001792386380777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6888095041958199</v>
+        <v>0.6898489391513866</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7113697767924602</v>
+        <v>0.7117430340427664</v>
       </c>
     </row>
     <row r="30">
